--- a/docu/TestExperimentSet1/TestExperiment3.xlsx
+++ b/docu/TestExperimentSet1/TestExperiment3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0C6E3-6E02-4EC2-B50D-B720F2A55D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF3D15-21F0-49E8-865A-23C239CE3200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="1515" windowWidth="16155" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>Experiment conditions</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Sac (vedl.osa)</t>
-  </si>
-  <si>
-    <t>Glc (vedl.osa)</t>
-  </si>
-  <si>
-    <t>Fru (vedl.osa)</t>
   </si>
   <si>
     <t>0,0023</t>
@@ -826,7 +817,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1106,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1292,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1291,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -1309,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1326,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -1343,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -1360,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <v>11222</v>
+        <v>11.222</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1368,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -1377,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <v>13787</v>
+        <v>13.787000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1385,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -1394,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <v>15543</v>
+        <v>15.542999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1411,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <v>15542</v>
+        <v>15.542</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1419,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1428,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18">
-        <v>14292</v>
+        <v>14.292</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1436,16 +1427,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="18">
-        <v>12627</v>
+        <v>12.627000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1453,16 +1444,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="18">
-        <v>10003</v>
+        <v>10.003</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,16 +1461,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,16 +1478,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1504,16 +1495,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1521,16 +1512,16 @@
         <v>34</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,16 +1529,16 @@
         <v>36</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1555,16 +1546,16 @@
         <v>38</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,16 +1563,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1589,16 +1580,16 @@
         <v>45</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1606,16 +1597,16 @@
         <v>50</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1623,16 +1614,16 @@
         <v>55</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1640,16 +1631,16 @@
         <v>60</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1657,16 +1648,16 @@
         <v>65</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1674,16 +1665,16 @@
         <v>70</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1691,16 +1682,16 @@
         <v>75</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,16 +1699,16 @@
         <v>80</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1725,16 +1716,16 @@
         <v>85</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1742,16 +1733,16 @@
         <v>90</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1759,16 +1750,16 @@
         <v>105</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1776,16 +1767,16 @@
         <v>120</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1793,16 +1784,16 @@
         <v>135</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1810,16 +1801,16 @@
         <v>150</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1830,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1850,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
